--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117998.7026297801</v>
+        <v>20803182.87263606</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117998.7026297801</v>
+        <v>20803182.87263606</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5238.287315485297</v>
+        <v>527372.6714983208</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5238.287315485297</v>
+        <v>527372.6714983208</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112009889.720051</v>
+        <v>45077672.15825708</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8513.631681346073</v>
+        <v>984974.7514572225</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16552.47872783818</v>
+        <v>1894543.930876125</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24514.50394960261</v>
+        <v>2804113.110295001</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32790.26523882729</v>
+        <v>3715835.716995369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41023.04072256771</v>
+        <v>4627347.091815388</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49230.35707534729</v>
+        <v>5538858.46663448</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57557.30409687337</v>
+        <v>6450369.841453811</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65724.06264608691</v>
+        <v>7361881.216272964</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73761.75104847045</v>
+        <v>8267862.610346438</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81788.24283062745</v>
+        <v>9177689.393230177</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89812.09347167391</v>
+        <v>10087258.57264903</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97598.22927025861</v>
+        <v>10995614.56027537</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105440.6302308307</v>
+        <v>11904107.25447721</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113706.527300467</v>
+        <v>12758752.5154494</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121883.5923158112</v>
+        <v>13613656.35576585</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>48.99999999884358</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>395.0000000011568</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
